--- a/data/excel/२०२३/०५/१७.xlsx
+++ b/data/excel/२०२३/०५/१७.xlsx
@@ -34,6 +34,12 @@
     <t>Avg Price</t>
   </si>
   <si>
+    <t>के.जी.</t>
+  </si>
+  <si>
+    <t>६०.००</t>
+  </si>
+  <si>
     <t>५०.००</t>
   </si>
   <si>
@@ -46,12 +52,6 @@
     <t>गोलभेडा ठूलो(नेपाली)</t>
   </si>
   <si>
-    <t>के.जी.</t>
-  </si>
-  <si>
-    <t>६०.००</t>
-  </si>
-  <si>
     <t>गोलभेडा ठूलो(भारतीय)</t>
   </si>
   <si>
@@ -64,6 +64,9 @@
     <t>६५.००</t>
   </si>
   <si>
+    <t>गोलभेडा सानो(लोकल)</t>
+  </si>
+  <si>
     <t>३०.००</t>
   </si>
   <si>
@@ -73,7 +76,10 @@
     <t>२८.००</t>
   </si>
   <si>
-    <t>गोलभेडा सानो(लोकल)</t>
+    <t>४०.००</t>
+  </si>
+  <si>
+    <t>४५.००</t>
   </si>
   <si>
     <t>गोलभेडा सानो(टनेल)</t>
@@ -82,10 +88,7 @@
     <t>के जी</t>
   </si>
   <si>
-    <t>४०.००</t>
-  </si>
-  <si>
-    <t>४५.००</t>
+    <t>३७.५०</t>
   </si>
   <si>
     <t>गोलभेडा सानो(भारतीय)</t>
@@ -94,21 +97,18 @@
     <t>३५.००</t>
   </si>
   <si>
-    <t>३७.५०</t>
-  </si>
-  <si>
     <t>गोलभेडा सानो(तराई)</t>
   </si>
   <si>
+    <t>३४.००</t>
+  </si>
+  <si>
+    <t>३४.६०</t>
+  </si>
+  <si>
     <t>आलु रातो</t>
   </si>
   <si>
-    <t>३४.००</t>
-  </si>
-  <si>
-    <t>३४.६०</t>
-  </si>
-  <si>
     <t>आलु रातो(भारतीय)</t>
   </si>
   <si>
@@ -118,6 +118,9 @@
     <t>३०.६७</t>
   </si>
   <si>
+    <t>२६.६७</t>
+  </si>
+  <si>
     <t>आलु सेतो</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
     <t>२६.००</t>
   </si>
   <si>
-    <t>२६.६७</t>
-  </si>
-  <si>
     <t>प्याज सुकेको (भारतीय)</t>
   </si>
   <si>
@@ -139,27 +139,27 @@
     <t>गाजर(लोकल)</t>
   </si>
   <si>
+    <t>१५.००</t>
+  </si>
+  <si>
+    <t>१०.००</t>
+  </si>
+  <si>
+    <t>११.८०</t>
+  </si>
+  <si>
     <t>बन्दा(लोकल)</t>
   </si>
   <si>
-    <t>१५.००</t>
-  </si>
-  <si>
-    <t>१०.००</t>
-  </si>
-  <si>
-    <t>११.८०</t>
-  </si>
-  <si>
     <t>काउली स्थानिय</t>
   </si>
   <si>
+    <t>स्थानीय काउली(ज्यापु)</t>
+  </si>
+  <si>
     <t>६६.६७</t>
   </si>
   <si>
-    <t>स्थानीय काउली(ज्यापु)</t>
-  </si>
-  <si>
     <t>मूला रातो</t>
   </si>
   <si>
@@ -187,15 +187,15 @@
     <t>बोडी(तने)</t>
   </si>
   <si>
+    <t>७६.६७</t>
+  </si>
+  <si>
+    <t>मकै बोडी</t>
+  </si>
+  <si>
     <t>८०.००</t>
   </si>
   <si>
-    <t>७६.६७</t>
-  </si>
-  <si>
-    <t>मकै बोडी</t>
-  </si>
-  <si>
     <t>मटरकोशा</t>
   </si>
   <si>
@@ -253,36 +253,36 @@
     <t>लौका</t>
   </si>
   <si>
+    <t>परवर(लोकल)</t>
+  </si>
+  <si>
     <t>९५.००</t>
   </si>
   <si>
-    <t>परवर(लोकल)</t>
+    <t>परवर(तराई)</t>
   </si>
   <si>
     <t>८५.००</t>
   </si>
   <si>
-    <t>परवर(तराई)</t>
-  </si>
-  <si>
     <t>चिचिण्डो</t>
   </si>
   <si>
     <t>घिरौला</t>
   </si>
   <si>
+    <t>६३.३३</t>
+  </si>
+  <si>
     <t>झिगूनी</t>
   </si>
   <si>
-    <t>६३.३३</t>
+    <t>फर्सी पाकेको</t>
   </si>
   <si>
     <t>४८.७५</t>
   </si>
   <si>
-    <t>फर्सी पाकेको</t>
-  </si>
-  <si>
     <t>फर्सी हरियो(लाम्चो)</t>
   </si>
   <si>
@@ -292,21 +292,21 @@
     <t>सलगम</t>
   </si>
   <si>
+    <t>६४.००</t>
+  </si>
+  <si>
     <t>भिण्डी</t>
   </si>
   <si>
-    <t>६४.००</t>
-  </si>
-  <si>
     <t>बरेला</t>
   </si>
   <si>
+    <t>स्कूस</t>
+  </si>
+  <si>
     <t>४६.६७</t>
   </si>
   <si>
-    <t>स्कूस</t>
-  </si>
-  <si>
     <t>रायो साग</t>
   </si>
   <si>
@@ -376,6 +376,9 @@
     <t>ग्याठ कोबी</t>
   </si>
   <si>
+    <t>१८३.३३</t>
+  </si>
+  <si>
     <t>सेलरी</t>
   </si>
   <si>
@@ -385,9 +388,6 @@
     <t>१५०.००</t>
   </si>
   <si>
-    <t>१८३.३३</t>
-  </si>
-  <si>
     <t>पार्सले</t>
   </si>
   <si>
@@ -406,12 +406,12 @@
     <t>गान्टे मूला</t>
   </si>
   <si>
+    <t>१४६.६७</t>
+  </si>
+  <si>
     <t>इमली</t>
   </si>
   <si>
-    <t>१४६.६७</t>
-  </si>
-  <si>
     <t>तामा</t>
   </si>
   <si>
@@ -421,12 +421,12 @@
     <t>तोफु</t>
   </si>
   <si>
+    <t>२८३.३३</t>
+  </si>
+  <si>
     <t>गुन्दुक</t>
   </si>
   <si>
-    <t>२८३.३३</t>
-  </si>
-  <si>
     <t>स्याउ(फूजी)</t>
   </si>
   <si>
@@ -445,54 +445,54 @@
     <t>२१०.००</t>
   </si>
   <si>
+    <t>अनार</t>
+  </si>
+  <si>
+    <t>२८०.००</t>
+  </si>
+  <si>
     <t>२७०.००</t>
   </si>
   <si>
-    <t>अनार</t>
-  </si>
-  <si>
-    <t>२८०.००</t>
+    <t>२२३.३३</t>
   </si>
   <si>
     <t>आँप(मालदह)</t>
   </si>
   <si>
-    <t>२२३.३३</t>
-  </si>
-  <si>
     <t>आँप(दसहरी)</t>
   </si>
   <si>
+    <t>२१३.३३</t>
+  </si>
+  <si>
     <t>अंगुर(हरियो)</t>
   </si>
   <si>
-    <t>२१३.३३</t>
+    <t>३२०.००</t>
+  </si>
+  <si>
+    <t>३३५.००</t>
   </si>
   <si>
     <t>अंगुर(कालो)</t>
   </si>
   <si>
-    <t>३२०.००</t>
-  </si>
-  <si>
-    <t>३३५.००</t>
+    <t>तरबुजा(हरियो)</t>
   </si>
   <si>
     <t>४३.३३</t>
   </si>
   <si>
-    <t>तरबुजा(हरियो)</t>
+    <t>१८०.००</t>
+  </si>
+  <si>
+    <t>१६५.००</t>
   </si>
   <si>
     <t>मौसम</t>
   </si>
   <si>
-    <t>१८०.००</t>
-  </si>
-  <si>
-    <t>१६५.००</t>
-  </si>
-  <si>
     <t>१९३.३३</t>
   </si>
   <si>
@@ -514,48 +514,48 @@
     <t>काक्रो(हाइब्रीड)</t>
   </si>
   <si>
+    <t>रुख कटहर</t>
+  </si>
+  <si>
     <t>५६.६७</t>
   </si>
   <si>
-    <t>रुख कटहर</t>
+    <t>नासपाती(चाइनिज)</t>
   </si>
   <si>
     <t>३१०.००</t>
   </si>
   <si>
-    <t>नासपाती(चाइनिज)</t>
-  </si>
-  <si>
     <t>मेवा(नेपाली)</t>
   </si>
   <si>
     <t>मेवा(भारतीय)</t>
   </si>
   <si>
+    <t>४५०.००</t>
+  </si>
+  <si>
+    <t>४८३.३३</t>
+  </si>
+  <si>
+    <t>किवि</t>
+  </si>
+  <si>
     <t>५००.००</t>
   </si>
   <si>
-    <t>४५०.००</t>
-  </si>
-  <si>
-    <t>४८३.३३</t>
-  </si>
-  <si>
-    <t>किवि</t>
-  </si>
-  <si>
     <t>के.जी</t>
   </si>
   <si>
     <t>आभोकाडो</t>
   </si>
   <si>
+    <t>अदुवा</t>
+  </si>
+  <si>
     <t>२७५.००</t>
   </si>
   <si>
-    <t>अदुवा</t>
-  </si>
-  <si>
     <t>खु्र्सानी सुकेको</t>
   </si>
   <si>
@@ -577,15 +577,15 @@
     <t>खुर्सानी हरियो(माछे)</t>
   </si>
   <si>
+    <t>३७५.००</t>
+  </si>
+  <si>
+    <t>खुर्सानी हरियो(अकबरे)</t>
+  </si>
+  <si>
     <t>४००.००</t>
   </si>
   <si>
-    <t>३७५.००</t>
-  </si>
-  <si>
-    <t>खुर्सानी हरियो(अकबरे)</t>
-  </si>
-  <si>
     <t>भेडे खु्र्सानी</t>
   </si>
   <si>
@@ -595,15 +595,15 @@
     <t>हरियो धनिया</t>
   </si>
   <si>
+    <t>लसुन सुकेको चाइनिज</t>
+  </si>
+  <si>
+    <t>२६०.००</t>
+  </si>
+  <si>
     <t>२४०.००</t>
   </si>
   <si>
-    <t>लसुन सुकेको चाइनिज</t>
-  </si>
-  <si>
-    <t>२६०.००</t>
-  </si>
-  <si>
     <t>लसुन सुकेको नेपाली</t>
   </si>
   <si>
@@ -613,13 +613,13 @@
     <t>छ्यापी हरियो</t>
   </si>
   <si>
+    <t>ताजा माछा(रहु)</t>
+  </si>
+  <si>
     <t>३३०.००</t>
   </si>
   <si>
     <t>३४३.३३</t>
-  </si>
-  <si>
-    <t>ताजा माछा(रहु)</t>
   </si>
   <si>
     <t>ताजा माछा(बचुवा)</t>
@@ -963,27 +963,27 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1003,119 +1003,119 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
@@ -1123,39 +1123,39 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
@@ -1163,19 +1163,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1183,50 +1183,50 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1235,44 +1235,44 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -1292,10 +1292,10 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
         <v>52</v>
@@ -1303,93 +1303,93 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
         <v>61</v>
@@ -1403,16 +1403,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
@@ -1435,7 +1435,7 @@
         <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
         <v>68</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>69</v>
@@ -1463,13 +1463,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>74</v>
@@ -1483,39 +1483,39 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
         <v>77</v>
@@ -1523,13 +1523,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
         <v>71</v>
@@ -1538,15 +1538,15 @@
         <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1555,115 +1555,115 @@
         <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>8</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
         <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>90</v>
@@ -1672,64 +1672,64 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
         <v>74</v>
@@ -1743,53 +1743,53 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
         <v>8</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
         <v>74</v>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
         <v>74</v>
@@ -1823,33 +1823,33 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
         <v>74</v>
@@ -1863,19 +1863,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
         <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
         <v>68</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
         <v>61</v>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
         <v>74</v>
@@ -1923,13 +1923,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
         <v>106</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
@@ -1963,33 +1963,33 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
         <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
         <v>74</v>
@@ -2003,79 +2003,79 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
         <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
         <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
         <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
         <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F57" t="s">
         <v>68</v>
@@ -2083,73 +2083,73 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
         <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" t="s">
         <v>120</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" t="s">
-        <v>122</v>
-      </c>
-      <c r="F59" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
         <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
         <v>74</v>
@@ -2163,19 +2163,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
         <v>128</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F62" t="s">
         <v>127</v>
@@ -2183,53 +2183,53 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
         <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E64" t="s">
         <v>61</v>
       </c>
       <c r="F64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
         <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
         <v>71</v>
@@ -2243,13 +2243,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
         <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
         <v>74</v>
@@ -2263,13 +2263,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
         <v>106</v>
@@ -2278,18 +2278,18 @@
         <v>107</v>
       </c>
       <c r="F67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
         <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
         <v>106</v>
@@ -2298,12 +2298,12 @@
         <v>107</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
         <v>138</v>
@@ -2312,30 +2312,30 @@
         <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E69" t="s">
         <v>61</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
         <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
         <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F70" t="s">
         <v>142</v>
@@ -2343,47 +2343,47 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
         <v>144</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>145</v>
       </c>
       <c r="E71" t="s">
         <v>107</v>
       </c>
       <c r="F71" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
         <v>107</v>
       </c>
       <c r="E72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
         <v>148</v>
@@ -2395,38 +2395,38 @@
         <v>107</v>
       </c>
       <c r="E73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
         <v>141</v>
       </c>
       <c r="E74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -2435,67 +2435,67 @@
         <v>111</v>
       </c>
       <c r="E75" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" t="s">
         <v>152</v>
-      </c>
-      <c r="F75" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" t="s">
         <v>155</v>
-      </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
         <v>156</v>
       </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" t="s">
         <v>157</v>
-      </c>
-      <c r="E77" t="s">
-        <v>122</v>
-      </c>
-      <c r="F77" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
         <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F78" t="s">
         <v>159</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>162</v>
@@ -2512,10 +2512,10 @@
         <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F79" t="s">
         <v>161</v>
@@ -2523,13 +2523,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
         <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
         <v>71</v>
@@ -2538,92 +2538,92 @@
         <v>67</v>
       </c>
       <c r="F80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
         <v>8</v>
       </c>
-      <c r="B82" t="s">
+      <c r="F82" t="s">
         <v>167</v>
-      </c>
-      <c r="C82" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E83" t="s">
         <v>106</v>
       </c>
       <c r="F83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
         <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
         <v>171</v>
@@ -2643,27 +2643,27 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="s">
+        <v>175</v>
+      </c>
+      <c r="E86" t="s">
         <v>172</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>173</v>
-      </c>
-      <c r="F86" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
         <v>177</v>
@@ -2672,24 +2672,24 @@
         <v>176</v>
       </c>
       <c r="D87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" t="s">
         <v>172</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
         <v>106</v>
@@ -2698,24 +2698,24 @@
         <v>107</v>
       </c>
       <c r="F88" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
         <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
         <v>181</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
         <v>182</v>
@@ -2723,13 +2723,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
         <v>183</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
         <v>71</v>
@@ -2743,13 +2743,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
         <v>185</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
         <v>71</v>
@@ -2758,78 +2758,78 @@
         <v>67</v>
       </c>
       <c r="F91" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
         <v>186</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" t="s">
         <v>189</v>
-      </c>
-      <c r="C93" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" t="s">
-        <v>187</v>
       </c>
       <c r="E93" t="s">
         <v>111</v>
       </c>
       <c r="F93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
         <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
         <v>71</v>
@@ -2843,39 +2843,39 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
         <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
         <v>194</v>
       </c>
-      <c r="C97" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>195</v>
-      </c>
-      <c r="E97" t="s">
-        <v>193</v>
       </c>
       <c r="F97" t="s">
         <v>107</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
         <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
         <v>61</v>
@@ -2903,19 +2903,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
         <v>197</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
         <v>67</v>
       </c>
       <c r="E99" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F99" t="s">
         <v>68</v>
@@ -2923,96 +2923,96 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
         <v>198</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
         <v>67</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
         <v>111</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
         <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
         <v>106</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
         <v>203</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
         <v>205</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E104" t="s">
         <v>106</v>

--- a/data/excel/२०२३/०५/१७.xlsx
+++ b/data/excel/२०२३/०५/१७.xlsx
@@ -34,36 +34,36 @@
     <t>Avg Price</t>
   </si>
   <si>
+    <t>५०.००</t>
+  </si>
+  <si>
+    <t>५५.००</t>
+  </si>
+  <si>
+    <t>२०२३-०५-१७</t>
+  </si>
+  <si>
+    <t>गोलभेडा ठूलो(नेपाली)</t>
+  </si>
+  <si>
     <t>के.जी.</t>
   </si>
   <si>
     <t>६०.००</t>
   </si>
   <si>
-    <t>५०.००</t>
-  </si>
-  <si>
-    <t>५५.००</t>
-  </si>
-  <si>
-    <t>२०२३-०५-१७</t>
-  </si>
-  <si>
-    <t>गोलभेडा ठूलो(नेपाली)</t>
+    <t>केजी</t>
+  </si>
+  <si>
+    <t>७०.००</t>
+  </si>
+  <si>
+    <t>६५.००</t>
   </si>
   <si>
     <t>गोलभेडा ठूलो(भारतीय)</t>
   </si>
   <si>
-    <t>केजी</t>
-  </si>
-  <si>
-    <t>७०.००</t>
-  </si>
-  <si>
-    <t>६५.००</t>
-  </si>
-  <si>
     <t>गोलभेडा सानो(लोकल)</t>
   </si>
   <si>
@@ -76,16 +76,19 @@
     <t>२८.००</t>
   </si>
   <si>
+    <t>४५.००</t>
+  </si>
+  <si>
+    <t>गोलभेडा सानो(टनेल)</t>
+  </si>
+  <si>
+    <t>के जी</t>
+  </si>
+  <si>
     <t>४०.००</t>
   </si>
   <si>
-    <t>४५.००</t>
-  </si>
-  <si>
-    <t>गोलभेडा सानो(टनेल)</t>
-  </si>
-  <si>
-    <t>के जी</t>
+    <t>३५.००</t>
   </si>
   <si>
     <t>३७.५०</t>
@@ -94,21 +97,18 @@
     <t>गोलभेडा सानो(भारतीय)</t>
   </si>
   <si>
-    <t>३५.००</t>
-  </si>
-  <si>
     <t>गोलभेडा सानो(तराई)</t>
   </si>
   <si>
+    <t>आलु रातो</t>
+  </si>
+  <si>
     <t>३४.००</t>
   </si>
   <si>
     <t>३४.६०</t>
   </si>
   <si>
-    <t>आलु रातो</t>
-  </si>
-  <si>
     <t>आलु रातो(भारतीय)</t>
   </si>
   <si>
@@ -118,27 +118,30 @@
     <t>३०.६७</t>
   </si>
   <si>
+    <t>आलु सेतो</t>
+  </si>
+  <si>
+    <t>२७.००</t>
+  </si>
+  <si>
+    <t>२६.००</t>
+  </si>
+  <si>
     <t>२६.६७</t>
   </si>
   <si>
-    <t>आलु सेतो</t>
-  </si>
-  <si>
-    <t>२७.००</t>
-  </si>
-  <si>
-    <t>२६.००</t>
+    <t>३४.५०</t>
   </si>
   <si>
     <t>प्याज सुकेको (भारतीय)</t>
   </si>
   <si>
-    <t>३४.५०</t>
-  </si>
-  <si>
     <t>गाजर(लोकल)</t>
   </si>
   <si>
+    <t>बन्दा(लोकल)</t>
+  </si>
+  <si>
     <t>१५.००</t>
   </si>
   <si>
@@ -148,36 +151,33 @@
     <t>११.८०</t>
   </si>
   <si>
-    <t>बन्दा(लोकल)</t>
-  </si>
-  <si>
     <t>काउली स्थानिय</t>
   </si>
   <si>
+    <t>६६.६७</t>
+  </si>
+  <si>
     <t>स्थानीय काउली(ज्यापु)</t>
   </si>
   <si>
-    <t>६६.६७</t>
-  </si>
-  <si>
     <t>मूला रातो</t>
   </si>
   <si>
+    <t>मूला सेतो(लोकल)</t>
+  </si>
+  <si>
     <t>२०.००</t>
   </si>
   <si>
     <t>२२.५०</t>
   </si>
   <si>
-    <t>मूला सेतो(लोकल)</t>
+    <t>सेतो मूला(हाइब्रीड)</t>
   </si>
   <si>
     <t>२७.५०</t>
   </si>
   <si>
-    <t>सेतो मूला(हाइब्रीड)</t>
-  </si>
-  <si>
     <t>भन्टा लाम्चो</t>
   </si>
   <si>
@@ -187,15 +187,15 @@
     <t>बोडी(तने)</t>
   </si>
   <si>
+    <t>मकै बोडी</t>
+  </si>
+  <si>
+    <t>८०.००</t>
+  </si>
+  <si>
     <t>७६.६७</t>
   </si>
   <si>
-    <t>मकै बोडी</t>
-  </si>
-  <si>
-    <t>८०.००</t>
-  </si>
-  <si>
     <t>मटरकोशा</t>
   </si>
   <si>
@@ -223,18 +223,18 @@
     <t>८६.६७</t>
   </si>
   <si>
+    <t>११०.००</t>
+  </si>
+  <si>
+    <t>१००.००</t>
+  </si>
+  <si>
+    <t>१०५.००</t>
+  </si>
+  <si>
     <t>घिउ सिमी(राजमा)</t>
   </si>
   <si>
-    <t>११०.००</t>
-  </si>
-  <si>
-    <t>१००.००</t>
-  </si>
-  <si>
-    <t>१०५.००</t>
-  </si>
-  <si>
     <t>भटमासकोशा</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>९५.००</t>
   </si>
   <si>
+    <t>८५.००</t>
+  </si>
+  <si>
     <t>परवर(तराई)</t>
   </si>
   <si>
-    <t>८५.००</t>
-  </si>
-  <si>
     <t>चिचिण्डो</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>सलगम</t>
   </si>
   <si>
+    <t>भिण्डी</t>
+  </si>
+  <si>
     <t>६४.००</t>
   </si>
   <si>
-    <t>भिण्डी</t>
-  </si>
-  <si>
     <t>बरेला</t>
   </si>
   <si>
@@ -334,6 +334,9 @@
     <t>च्याउ(कन्य)</t>
   </si>
   <si>
+    <t>च्याउ(डल्ले)</t>
+  </si>
+  <si>
     <t>३००.००</t>
   </si>
   <si>
@@ -343,18 +346,15 @@
     <t>२७६.००</t>
   </si>
   <si>
-    <t>च्याउ(डल्ले)</t>
+    <t>३५०.००</t>
+  </si>
+  <si>
+    <t>३२५.००</t>
   </si>
   <si>
     <t>कुरीलो</t>
   </si>
   <si>
-    <t>३५०.००</t>
-  </si>
-  <si>
-    <t>३२५.००</t>
-  </si>
-  <si>
     <t>न्यूरो</t>
   </si>
   <si>
@@ -376,33 +376,33 @@
     <t>ग्याठ कोबी</t>
   </si>
   <si>
+    <t>सेलरी</t>
+  </si>
+  <si>
+    <t>२००.००</t>
+  </si>
+  <si>
+    <t>१५०.००</t>
+  </si>
+  <si>
     <t>१८३.३३</t>
   </si>
   <si>
-    <t>सेलरी</t>
-  </si>
-  <si>
-    <t>२००.००</t>
-  </si>
-  <si>
-    <t>१५०.००</t>
-  </si>
-  <si>
     <t>पार्सले</t>
   </si>
   <si>
+    <t>११५.००</t>
+  </si>
+  <si>
     <t>सौफको साग</t>
   </si>
   <si>
-    <t>११५.००</t>
+    <t>पुदीना</t>
   </si>
   <si>
     <t>१७५.००</t>
   </si>
   <si>
-    <t>पुदीना</t>
-  </si>
-  <si>
     <t>गान्टे मूला</t>
   </si>
   <si>
@@ -445,15 +445,15 @@
     <t>२१०.००</t>
   </si>
   <si>
+    <t>२७०.००</t>
+  </si>
+  <si>
     <t>अनार</t>
   </si>
   <si>
     <t>२८०.००</t>
   </si>
   <si>
-    <t>२७०.००</t>
-  </si>
-  <si>
     <t>२२३.३३</t>
   </si>
   <si>
@@ -469,36 +469,36 @@
     <t>अंगुर(हरियो)</t>
   </si>
   <si>
+    <t>अंगुर(कालो)</t>
+  </si>
+  <si>
     <t>३२०.००</t>
   </si>
   <si>
     <t>३३५.००</t>
   </si>
   <si>
-    <t>अंगुर(कालो)</t>
-  </si>
-  <si>
     <t>तरबुजा(हरियो)</t>
   </si>
   <si>
     <t>४३.३३</t>
   </si>
   <si>
+    <t>१६५.००</t>
+  </si>
+  <si>
+    <t>मौसम</t>
+  </si>
+  <si>
     <t>१८०.००</t>
   </si>
   <si>
-    <t>१६५.००</t>
-  </si>
-  <si>
-    <t>मौसम</t>
+    <t>जुनार</t>
   </si>
   <si>
     <t>१९३.३३</t>
   </si>
   <si>
-    <t>जुनार</t>
-  </si>
-  <si>
     <t>१९०.००</t>
   </si>
   <si>
@@ -514,78 +514,78 @@
     <t>काक्रो(हाइब्रीड)</t>
   </si>
   <si>
+    <t>५६.६७</t>
+  </si>
+  <si>
     <t>रुख कटहर</t>
   </si>
   <si>
-    <t>५६.६७</t>
+    <t>३१०.००</t>
   </si>
   <si>
     <t>नासपाती(चाइनिज)</t>
   </si>
   <si>
-    <t>३१०.००</t>
-  </si>
-  <si>
     <t>मेवा(नेपाली)</t>
   </si>
   <si>
     <t>मेवा(भारतीय)</t>
   </si>
   <si>
+    <t>किवि</t>
+  </si>
+  <si>
+    <t>५००.००</t>
+  </si>
+  <si>
     <t>४५०.००</t>
   </si>
   <si>
     <t>४८३.३३</t>
   </si>
   <si>
-    <t>किवि</t>
-  </si>
-  <si>
-    <t>५००.००</t>
+    <t>आभोकाडो</t>
   </si>
   <si>
     <t>के.जी</t>
   </si>
   <si>
-    <t>आभोकाडो</t>
-  </si>
-  <si>
     <t>अदुवा</t>
   </si>
   <si>
     <t>२७५.००</t>
   </si>
   <si>
+    <t>४६५.००</t>
+  </si>
+  <si>
     <t>खु्र्सानी सुकेको</t>
   </si>
   <si>
     <t>४८०.००</t>
   </si>
   <si>
-    <t>४६५.००</t>
+    <t>९६.००</t>
   </si>
   <si>
     <t>खु्र्सानी हरियो</t>
   </si>
   <si>
-    <t>९६.००</t>
-  </si>
-  <si>
     <t>खुर्सानी हरियो(बुलेट)</t>
   </si>
   <si>
     <t>खुर्सानी हरियो(माछे)</t>
   </si>
   <si>
+    <t>४००.००</t>
+  </si>
+  <si>
     <t>३७५.००</t>
   </si>
   <si>
     <t>खुर्सानी हरियो(अकबरे)</t>
   </si>
   <si>
-    <t>४००.००</t>
-  </si>
-  <si>
     <t>भेडे खु्र्सानी</t>
   </si>
   <si>
@@ -595,13 +595,13 @@
     <t>हरियो धनिया</t>
   </si>
   <si>
+    <t>२४०.००</t>
+  </si>
+  <si>
     <t>लसुन सुकेको चाइनिज</t>
   </si>
   <si>
     <t>२६०.००</t>
-  </si>
-  <si>
-    <t>२४०.००</t>
   </si>
   <si>
     <t>लसुन सुकेको नेपाली</t>
@@ -963,53 +963,53 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1023,93 +1023,93 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
@@ -1123,173 +1123,173 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
       <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1298,98 +1298,98 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
       <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
         <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
       <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
         <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
         <v>61</v>
@@ -1403,19 +1403,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>65</v>
@@ -1423,19 +1423,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
         <v>68</v>
@@ -1443,39 +1443,39 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>71</v>
-      </c>
-      <c r="F26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
         <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -1483,39 +1483,39 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
       </c>
       <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>78</v>
       </c>
       <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
         <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
       </c>
       <c r="F29" t="s">
         <v>77</v>
@@ -1523,16 +1523,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
@@ -1543,79 +1543,79 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
         <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
       </c>
       <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
         <v>85</v>
@@ -1623,19 +1623,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
       </c>
       <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
         <v>88</v>
@@ -1643,99 +1643,99 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>89</v>
       </c>
       <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
       <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
         <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
         <v>20</v>
-      </c>
-      <c r="F37" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
         <v>59</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
         <v>93</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
         <v>75</v>
@@ -1743,19 +1743,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>95</v>
       </c>
       <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
         <v>96</v>
@@ -1763,19 +1763,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>97</v>
       </c>
       <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
         <v>96</v>
@@ -1783,19 +1783,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
         <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
         <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F43" t="s">
         <v>75</v>
@@ -1803,19 +1803,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F44" t="s">
         <v>75</v>
@@ -1823,19 +1823,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>100</v>
       </c>
       <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
         <v>96</v>
@@ -1843,19 +1843,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
         <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F46" t="s">
         <v>75</v>
@@ -1863,19 +1863,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
         <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
         <v>68</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
         <v>61</v>
@@ -1903,159 +1903,159 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
         <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" t="s">
         <v>109</v>
-      </c>
-      <c r="C50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
         <v>110</v>
       </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
         <v>111</v>
-      </c>
-      <c r="E51" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
         <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
         <v>59</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
         <v>59</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
         <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
         <v>59</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
         <v>85</v>
@@ -2063,19 +2063,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
         <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" t="s">
         <v>68</v>
@@ -2083,136 +2083,136 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
         <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>59</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
         <v>121</v>
       </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>122</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>123</v>
-      </c>
-      <c r="F59" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" t="s">
         <v>122</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>123</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
         <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>128</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
         <v>59</v>
-      </c>
-      <c r="E63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E64" t="s">
         <v>61</v>
@@ -2223,16 +2223,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
         <v>67</v>
@@ -2243,19 +2243,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
         <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
         <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F66" t="s">
         <v>75</v>
@@ -2263,19 +2263,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F67" t="s">
         <v>135</v>
@@ -2283,19 +2283,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
         <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F68" t="s">
         <v>135</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
         <v>138</v>
@@ -2312,7 +2312,7 @@
         <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
         <v>61</v>
@@ -2323,19 +2323,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
         <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
         <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F70" t="s">
         <v>142</v>
@@ -2343,39 +2343,39 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" t="s">
         <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" t="s">
-        <v>107</v>
-      </c>
-      <c r="F71" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F72" t="s">
         <v>146</v>
@@ -2383,19 +2383,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F73" t="s">
         <v>146</v>
@@ -2403,19 +2403,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
         <v>141</v>
       </c>
       <c r="E74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F74" t="s">
         <v>149</v>
@@ -2423,39 +2423,39 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" t="s">
+        <v>152</v>
+      </c>
+      <c r="F75" t="s">
         <v>153</v>
-      </c>
-      <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E75" t="s">
-        <v>151</v>
-      </c>
-      <c r="F75" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
         <v>155</v>
@@ -2463,47 +2463,47 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
         <v>158</v>
       </c>
-      <c r="C77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" t="s">
         <v>156</v>
-      </c>
-      <c r="E77" t="s">
-        <v>123</v>
-      </c>
-      <c r="F77" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" t="s">
+        <v>158</v>
+      </c>
+      <c r="F78" t="s">
         <v>160</v>
-      </c>
-      <c r="C78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" t="s">
-        <v>156</v>
-      </c>
-      <c r="F78" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>162</v>
@@ -2512,10 +2512,10 @@
         <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E79" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F79" t="s">
         <v>161</v>
@@ -2523,16 +2523,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E80" t="s">
         <v>67</v>
@@ -2543,96 +2543,96 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
         <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
         <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" t="s">
         <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" t="s">
-        <v>151</v>
-      </c>
-      <c r="E83" t="s">
-        <v>106</v>
-      </c>
-      <c r="F83" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
         <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E85" t="s">
         <v>67</v>
@@ -2643,59 +2643,59 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" t="s">
         <v>174</v>
       </c>
-      <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>175</v>
-      </c>
-      <c r="E86" t="s">
-        <v>172</v>
-      </c>
-      <c r="F86" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="s">
         <v>177</v>
       </c>
-      <c r="C87" t="s">
-        <v>176</v>
-      </c>
       <c r="D87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" t="s">
+        <v>174</v>
+      </c>
+      <c r="F87" t="s">
         <v>175</v>
-      </c>
-      <c r="E87" t="s">
-        <v>172</v>
-      </c>
-      <c r="F87" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
         <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F88" t="s">
         <v>179</v>
@@ -2703,56 +2703,56 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>182</v>
+      </c>
+      <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>180</v>
-      </c>
-      <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" t="s">
-        <v>181</v>
-      </c>
-      <c r="E89" t="s">
-        <v>172</v>
-      </c>
-      <c r="F89" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
         <v>67</v>
       </c>
       <c r="F90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
         <v>185</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E91" t="s">
         <v>67</v>
@@ -2763,76 +2763,76 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
         <v>186</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>187</v>
+      </c>
+      <c r="E93" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" t="s">
         <v>188</v>
-      </c>
-      <c r="C93" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" t="s">
-        <v>189</v>
-      </c>
-      <c r="E93" t="s">
-        <v>111</v>
-      </c>
-      <c r="F93" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
         <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
         <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E95" t="s">
         <v>67</v>
@@ -2843,53 +2843,53 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
         <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>195</v>
+      </c>
+      <c r="E97" t="s">
         <v>193</v>
       </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>194</v>
-      </c>
-      <c r="E97" t="s">
-        <v>195</v>
-      </c>
       <c r="F97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
         <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
         <v>61</v>
@@ -2903,19 +2903,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
         <v>197</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
         <v>67</v>
       </c>
       <c r="E99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F99" t="s">
         <v>68</v>
@@ -2923,36 +2923,36 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
         <v>198</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
         <v>67</v>
       </c>
       <c r="E100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
         <v>199</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E101" t="s">
         <v>200</v>
@@ -2963,59 +2963,59 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
         <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E102" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
         <v>203</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
         <v>205</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
         <v>200</v>
       </c>
       <c r="E104" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F104" t="s">
         <v>204</v>

--- a/data/excel/२०२३/०५/१७.xlsx
+++ b/data/excel/२०२३/०५/१७.xlsx
@@ -34,22 +34,25 @@
     <t>Avg Price</t>
   </si>
   <si>
+    <t>२०२३-०५-१७</t>
+  </si>
+  <si>
+    <t>गोलभेडा ठूलो(नेपाली)</t>
+  </si>
+  <si>
+    <t>के.जी.</t>
+  </si>
+  <si>
+    <t>६०.००</t>
+  </si>
+  <si>
     <t>५०.००</t>
   </si>
   <si>
     <t>५५.००</t>
   </si>
   <si>
-    <t>२०२३-०५-१७</t>
-  </si>
-  <si>
-    <t>गोलभेडा ठूलो(नेपाली)</t>
-  </si>
-  <si>
-    <t>के.जी.</t>
-  </si>
-  <si>
-    <t>६०.००</t>
+    <t>गोलभेडा ठूलो(भारतीय)</t>
   </si>
   <si>
     <t>केजी</t>
@@ -61,31 +64,31 @@
     <t>६५.००</t>
   </si>
   <si>
-    <t>गोलभेडा ठूलो(भारतीय)</t>
+    <t>३०.००</t>
+  </si>
+  <si>
+    <t>२५.००</t>
+  </si>
+  <si>
+    <t>२८.००</t>
   </si>
   <si>
     <t>गोलभेडा सानो(लोकल)</t>
   </si>
   <si>
-    <t>३०.००</t>
-  </si>
-  <si>
-    <t>२५.००</t>
-  </si>
-  <si>
-    <t>२८.००</t>
+    <t>गोलभेडा सानो(टनेल)</t>
+  </si>
+  <si>
+    <t>के जी</t>
+  </si>
+  <si>
+    <t>४०.००</t>
   </si>
   <si>
     <t>४५.००</t>
   </si>
   <si>
-    <t>गोलभेडा सानो(टनेल)</t>
-  </si>
-  <si>
-    <t>के जी</t>
-  </si>
-  <si>
-    <t>४०.००</t>
+    <t>गोलभेडा सानो(भारतीय)</t>
   </si>
   <si>
     <t>३५.००</t>
@@ -94,21 +97,18 @@
     <t>३७.५०</t>
   </si>
   <si>
-    <t>गोलभेडा सानो(भारतीय)</t>
-  </si>
-  <si>
     <t>गोलभेडा सानो(तराई)</t>
   </si>
   <si>
+    <t>३४.००</t>
+  </si>
+  <si>
+    <t>३४.६०</t>
+  </si>
+  <si>
     <t>आलु रातो</t>
   </si>
   <si>
-    <t>३४.००</t>
-  </si>
-  <si>
-    <t>३४.६०</t>
-  </si>
-  <si>
     <t>आलु रातो(भारतीय)</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>२६.६७</t>
   </si>
   <si>
+    <t>प्याज सुकेको (भारतीय)</t>
+  </si>
+  <si>
     <t>३४.५०</t>
   </si>
   <si>
-    <t>प्याज सुकेको (भारतीय)</t>
-  </si>
-  <si>
     <t>गाजर(लोकल)</t>
   </si>
   <si>
@@ -154,24 +154,24 @@
     <t>काउली स्थानिय</t>
   </si>
   <si>
+    <t>स्थानीय काउली(ज्यापु)</t>
+  </si>
+  <si>
     <t>६६.६७</t>
   </si>
   <si>
-    <t>स्थानीय काउली(ज्यापु)</t>
-  </si>
-  <si>
     <t>मूला रातो</t>
   </si>
   <si>
+    <t>२०.००</t>
+  </si>
+  <si>
+    <t>२२.५०</t>
+  </si>
+  <si>
     <t>मूला सेतो(लोकल)</t>
   </si>
   <si>
-    <t>२०.००</t>
-  </si>
-  <si>
-    <t>२२.५०</t>
-  </si>
-  <si>
     <t>सेतो मूला(हाइब्रीड)</t>
   </si>
   <si>
@@ -196,6 +196,9 @@
     <t>७६.६७</t>
   </si>
   <si>
+    <t>१३६.६७</t>
+  </si>
+  <si>
     <t>मटरकोशा</t>
   </si>
   <si>
@@ -205,22 +208,22 @@
     <t>१३०.००</t>
   </si>
   <si>
-    <t>१३६.६७</t>
-  </si>
-  <si>
     <t>घिउ सिमी(लोकल)</t>
   </si>
   <si>
     <t>७५.००</t>
   </si>
   <si>
+    <t>८६.६७</t>
+  </si>
+  <si>
     <t>घिउ सिमी(हाइब्रीड)</t>
   </si>
   <si>
     <t>९०.००</t>
   </si>
   <si>
-    <t>८६.६७</t>
+    <t>घिउ सिमी(राजमा)</t>
   </si>
   <si>
     <t>११०.००</t>
@@ -232,57 +235,54 @@
     <t>१०५.००</t>
   </si>
   <si>
-    <t>घिउ सिमी(राजमा)</t>
+    <t>१२०.००</t>
+  </si>
+  <si>
+    <t>११६.६७</t>
   </si>
   <si>
     <t>भटमासकोशा</t>
   </si>
   <si>
-    <t>१२०.००</t>
-  </si>
-  <si>
-    <t>११६.६७</t>
-  </si>
-  <si>
     <t>तितो करेला</t>
   </si>
   <si>
+    <t>लौका</t>
+  </si>
+  <si>
     <t>५६.००</t>
   </si>
   <si>
-    <t>लौका</t>
-  </si>
-  <si>
     <t>परवर(लोकल)</t>
   </si>
   <si>
     <t>९५.००</t>
   </si>
   <si>
+    <t>परवर(तराई)</t>
+  </si>
+  <si>
     <t>८५.००</t>
   </si>
   <si>
-    <t>परवर(तराई)</t>
-  </si>
-  <si>
     <t>चिचिण्डो</t>
   </si>
   <si>
     <t>घिरौला</t>
   </si>
   <si>
+    <t>झिगूनी</t>
+  </si>
+  <si>
     <t>६३.३३</t>
   </si>
   <si>
-    <t>झिगूनी</t>
+    <t>४८.७५</t>
   </si>
   <si>
     <t>फर्सी पाकेको</t>
   </si>
   <si>
-    <t>४८.७५</t>
-  </si>
-  <si>
     <t>फर्सी हरियो(लाम्चो)</t>
   </si>
   <si>
@@ -301,12 +301,12 @@
     <t>बरेला</t>
   </si>
   <si>
+    <t>४६.६७</t>
+  </si>
+  <si>
     <t>स्कूस</t>
   </si>
   <si>
-    <t>४६.६७</t>
-  </si>
-  <si>
     <t>रायो साग</t>
   </si>
   <si>
@@ -325,15 +325,18 @@
     <t>प्याज हरियो</t>
   </si>
   <si>
+    <t>१३५.००</t>
+  </si>
+  <si>
     <t>तरुल</t>
   </si>
   <si>
-    <t>१३५.००</t>
-  </si>
-  <si>
     <t>च्याउ(कन्य)</t>
   </si>
   <si>
+    <t>२७६.००</t>
+  </si>
+  <si>
     <t>च्याउ(डल्ले)</t>
   </si>
   <si>
@@ -343,18 +346,15 @@
     <t>२५०.००</t>
   </si>
   <si>
-    <t>२७६.००</t>
+    <t>३२५.००</t>
+  </si>
+  <si>
+    <t>कुरीलो</t>
   </si>
   <si>
     <t>३५०.००</t>
   </si>
   <si>
-    <t>३२५.००</t>
-  </si>
-  <si>
-    <t>कुरीलो</t>
-  </si>
-  <si>
     <t>न्यूरो</t>
   </si>
   <si>
@@ -391,27 +391,27 @@
     <t>पार्सले</t>
   </si>
   <si>
+    <t>सौफको साग</t>
+  </si>
+  <si>
     <t>११५.००</t>
   </si>
   <si>
-    <t>सौफको साग</t>
+    <t>१७५.००</t>
   </si>
   <si>
     <t>पुदीना</t>
   </si>
   <si>
-    <t>१७५.००</t>
-  </si>
-  <si>
     <t>गान्टे मूला</t>
   </si>
   <si>
+    <t>इमली</t>
+  </si>
+  <si>
     <t>१४६.६७</t>
   </si>
   <si>
-    <t>इमली</t>
-  </si>
-  <si>
     <t>तामा</t>
   </si>
   <si>
@@ -430,12 +430,12 @@
     <t>स्याउ(फूजी)</t>
   </si>
   <si>
+    <t>दर्जन</t>
+  </si>
+  <si>
     <t>केरा</t>
   </si>
   <si>
-    <t>दर्जन</t>
-  </si>
-  <si>
     <t>कागती</t>
   </si>
   <si>
@@ -445,21 +445,21 @@
     <t>२१०.००</t>
   </si>
   <si>
+    <t>अनार</t>
+  </si>
+  <si>
+    <t>२८०.००</t>
+  </si>
+  <si>
     <t>२७०.००</t>
   </si>
   <si>
-    <t>अनार</t>
-  </si>
-  <si>
-    <t>२८०.००</t>
+    <t>आँप(मालदह)</t>
   </si>
   <si>
     <t>२२३.३३</t>
   </si>
   <si>
-    <t>आँप(मालदह)</t>
-  </si>
-  <si>
     <t>आँप(दसहरी)</t>
   </si>
   <si>
@@ -469,30 +469,30 @@
     <t>अंगुर(हरियो)</t>
   </si>
   <si>
+    <t>३२०.००</t>
+  </si>
+  <si>
+    <t>३३५.००</t>
+  </si>
+  <si>
     <t>अंगुर(कालो)</t>
   </si>
   <si>
-    <t>३२०.००</t>
-  </si>
-  <si>
-    <t>३३५.००</t>
-  </si>
-  <si>
     <t>तरबुजा(हरियो)</t>
   </si>
   <si>
     <t>४३.३३</t>
   </si>
   <si>
+    <t>मौसम</t>
+  </si>
+  <si>
+    <t>१८०.००</t>
+  </si>
+  <si>
     <t>१६५.००</t>
   </si>
   <si>
-    <t>मौसम</t>
-  </si>
-  <si>
-    <t>१८०.००</t>
-  </si>
-  <si>
     <t>जुनार</t>
   </si>
   <si>
@@ -532,39 +532,39 @@
     <t>मेवा(भारतीय)</t>
   </si>
   <si>
+    <t>५००.००</t>
+  </si>
+  <si>
+    <t>४५०.००</t>
+  </si>
+  <si>
+    <t>४८३.३३</t>
+  </si>
+  <si>
     <t>किवि</t>
   </si>
   <si>
-    <t>५००.००</t>
-  </si>
-  <si>
-    <t>४५०.००</t>
-  </si>
-  <si>
-    <t>४८३.३३</t>
-  </si>
-  <si>
     <t>आभोकाडो</t>
   </si>
   <si>
     <t>के.जी</t>
   </si>
   <si>
+    <t>२७५.००</t>
+  </si>
+  <si>
     <t>अदुवा</t>
   </si>
   <si>
-    <t>२७५.००</t>
+    <t>खु्र्सानी सुकेको</t>
+  </si>
+  <si>
+    <t>४८०.००</t>
   </si>
   <si>
     <t>४६५.००</t>
   </si>
   <si>
-    <t>खु्र्सानी सुकेको</t>
-  </si>
-  <si>
-    <t>४८०.००</t>
-  </si>
-  <si>
     <t>९६.००</t>
   </si>
   <si>
@@ -577,15 +577,15 @@
     <t>खुर्सानी हरियो(माछे)</t>
   </si>
   <si>
+    <t>३७५.००</t>
+  </si>
+  <si>
+    <t>खुर्सानी हरियो(अकबरे)</t>
+  </si>
+  <si>
     <t>४००.००</t>
   </si>
   <si>
-    <t>३७५.००</t>
-  </si>
-  <si>
-    <t>खुर्सानी हरियो(अकबरे)</t>
-  </si>
-  <si>
     <t>भेडे खु्र्सानी</t>
   </si>
   <si>
@@ -595,15 +595,15 @@
     <t>हरियो धनिया</t>
   </si>
   <si>
+    <t>लसुन सुकेको चाइनिज</t>
+  </si>
+  <si>
+    <t>२६०.००</t>
+  </si>
+  <si>
     <t>२४०.००</t>
   </si>
   <si>
-    <t>लसुन सुकेको चाइनिज</t>
-  </si>
-  <si>
-    <t>२६०.००</t>
-  </si>
-  <si>
     <t>लसुन सुकेको नेपाली</t>
   </si>
   <si>
@@ -613,13 +613,13 @@
     <t>छ्यापी हरियो</t>
   </si>
   <si>
+    <t>३४३.३३</t>
+  </si>
+  <si>
     <t>ताजा माछा(रहु)</t>
   </si>
   <si>
     <t>३३०.००</t>
-  </si>
-  <si>
-    <t>३४३.३३</t>
   </si>
   <si>
     <t>ताजा माछा(बचुवा)</t>
@@ -963,159 +963,159 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -1143,53 +1143,53 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>42</v>
@@ -1203,99 +1203,99 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
       <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
         <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
@@ -1303,79 +1303,79 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
       <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
         <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
       <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
         <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
         <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -1383,39 +1383,39 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
         <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
         <v>65</v>
@@ -1423,119 +1423,119 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
         <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
         <v>73</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" t="s">
         <v>74</v>
-      </c>
-      <c r="E27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
       </c>
       <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
         <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
         <v>80</v>
@@ -1543,159 +1543,159 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
         <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
       </c>
       <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
         <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
         <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>89</v>
       </c>
       <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
         <v>10</v>
       </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
       <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
         <v>23</v>
-      </c>
-      <c r="F36" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
         <v>23</v>
-      </c>
-      <c r="F37" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
         <v>59</v>
@@ -1703,19 +1703,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>93</v>
@@ -1723,259 +1723,259 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
         <v>74</v>
-      </c>
-      <c r="E40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>97</v>
       </c>
       <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
         <v>10</v>
       </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
         <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
         <v>74</v>
-      </c>
-      <c r="E43" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
         <v>74</v>
-      </c>
-      <c r="E44" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>100</v>
       </c>
       <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
         <v>10</v>
       </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" t="s">
         <v>74</v>
-      </c>
-      <c r="E46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E47" t="s">
         <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
         <v>103</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
         <v>70</v>
-      </c>
-      <c r="F49" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
         <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
         <v>112</v>
       </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
         <v>110</v>
-      </c>
-      <c r="E51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
         <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
         <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
         <v>59</v>
@@ -1983,39 +1983,39 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
         <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" t="s">
         <v>70</v>
-      </c>
-      <c r="F53" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
         <v>59</v>
@@ -2023,19 +2023,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
         <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
         <v>59</v>
@@ -2043,59 +2043,59 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
         <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
         <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
         <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
         <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
         <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
         <v>59</v>
@@ -2103,13 +2103,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
         <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>121</v>
@@ -2123,13 +2123,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
         <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
         <v>121</v>
@@ -2143,33 +2143,33 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" t="s">
         <v>126</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
         <v>121</v>
@@ -2178,24 +2178,24 @@
         <v>122</v>
       </c>
       <c r="F62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
         <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
         <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
         <v>59</v>
@@ -2203,39 +2203,39 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>122</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
         <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
         <v>133</v>
@@ -2243,39 +2243,39 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
         <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" t="s">
         <v>74</v>
-      </c>
-      <c r="E66" t="s">
-        <v>69</v>
-      </c>
-      <c r="F66" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
         <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F67" t="s">
         <v>135</v>
@@ -2283,19 +2283,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F68" t="s">
         <v>135</v>
@@ -2303,33 +2303,33 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="s">
         <v>138</v>
-      </c>
-      <c r="C69" t="s">
-        <v>139</v>
       </c>
       <c r="D69" t="s">
         <v>122</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
         <v>141</v>
@@ -2343,73 +2343,73 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
         <v>144</v>
       </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" t="s">
         <v>145</v>
-      </c>
-      <c r="E71" t="s">
-        <v>108</v>
-      </c>
-      <c r="F71" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E72" t="s">
         <v>121</v>
       </c>
       <c r="F72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E73" t="s">
         <v>121</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
         <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
         <v>141</v>
@@ -2423,39 +2423,39 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" t="s">
         <v>151</v>
       </c>
-      <c r="C75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>152</v>
-      </c>
-      <c r="F75" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
         <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
         <v>155</v>
@@ -2463,39 +2463,39 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
         <v>157</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>158</v>
       </c>
       <c r="E77" t="s">
         <v>122</v>
       </c>
       <c r="F77" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
         <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
         <v>121</v>
       </c>
       <c r="E78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F78" t="s">
         <v>160</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
         <v>162</v>
@@ -2515,7 +2515,7 @@
         <v>121</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F79" t="s">
         <v>161</v>
@@ -2523,19 +2523,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
         <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F80" t="s">
         <v>80</v>
@@ -2543,39 +2543,39 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
         <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
         <v>167</v>
       </c>
       <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
         <v>10</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" t="s">
-        <v>6</v>
       </c>
       <c r="F82" t="s">
         <v>166</v>
@@ -2583,19 +2583,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
         <v>169</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F83" t="s">
         <v>168</v>
@@ -2603,39 +2603,39 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
         <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
         <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F85" t="s">
         <v>133</v>
@@ -2643,27 +2643,27 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
         <v>172</v>
       </c>
-      <c r="C86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>173</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>174</v>
-      </c>
-      <c r="F86" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
         <v>176</v>
@@ -2672,70 +2672,70 @@
         <v>177</v>
       </c>
       <c r="D87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" t="s">
         <v>173</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>174</v>
-      </c>
-      <c r="F87" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" t="s">
+        <v>109</v>
+      </c>
+      <c r="F88" t="s">
         <v>178</v>
-      </c>
-      <c r="C88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" t="s">
-        <v>107</v>
-      </c>
-      <c r="E88" t="s">
-        <v>108</v>
-      </c>
-      <c r="F88" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
         <v>181</v>
       </c>
-      <c r="C89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
+        <v>173</v>
+      </c>
+      <c r="F89" t="s">
         <v>182</v>
-      </c>
-      <c r="E89" t="s">
-        <v>174</v>
-      </c>
-      <c r="F89" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
         <v>184</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F90" t="s">
         <v>183</v>
@@ -2743,19 +2743,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
         <v>185</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F91" t="s">
         <v>80</v>
@@ -2763,19 +2763,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
         <v>186</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
         <v>166</v>
@@ -2783,39 +2783,39 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" t="s">
         <v>189</v>
       </c>
-      <c r="C93" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
+        <v>112</v>
+      </c>
+      <c r="F93" t="s">
         <v>187</v>
-      </c>
-      <c r="E93" t="s">
-        <v>110</v>
-      </c>
-      <c r="F93" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
         <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F94" t="s">
         <v>93</v>
@@ -2823,19 +2823,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
         <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E95" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F95" t="s">
         <v>133</v>
@@ -2843,179 +2843,179 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
         <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
         <v>194</v>
       </c>
-      <c r="C97" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>195</v>
       </c>
-      <c r="E97" t="s">
-        <v>193</v>
-      </c>
       <c r="F97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
         <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
         <v>197</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E99" t="s">
         <v>58</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
         <v>198</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E100" t="s">
         <v>58</v>
       </c>
       <c r="F100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" t="s">
+        <v>112</v>
+      </c>
+      <c r="E101" t="s">
+        <v>201</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="C101" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" t="s">
-        <v>110</v>
-      </c>
-      <c r="E101" t="s">
-        <v>200</v>
-      </c>
-      <c r="F101" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
         <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
         <v>203</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
         <v>205</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F104" t="s">
         <v>204</v>

--- a/data/excel/२०२३/०५/१७.xlsx
+++ b/data/excel/२०२३/०५/१७.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
+    <t>Avg Price</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -31,9 +34,6 @@
     <t>Min Price</t>
   </si>
   <si>
-    <t>Avg Price</t>
-  </si>
-  <si>
     <t>२०२३-०५-१७</t>
   </si>
   <si>
@@ -52,16 +52,19 @@
     <t>५५.००</t>
   </si>
   <si>
+    <t>७०.००</t>
+  </si>
+  <si>
+    <t>६५.००</t>
+  </si>
+  <si>
     <t>गोलभेडा ठूलो(भारतीय)</t>
   </si>
   <si>
     <t>केजी</t>
   </si>
   <si>
-    <t>७०.००</t>
-  </si>
-  <si>
-    <t>६५.००</t>
+    <t>गोलभेडा सानो(लोकल)</t>
   </si>
   <si>
     <t>३०.००</t>
@@ -73,21 +76,18 @@
     <t>२८.००</t>
   </si>
   <si>
-    <t>गोलभेडा सानो(लोकल)</t>
+    <t>के जी</t>
+  </si>
+  <si>
+    <t>४०.००</t>
+  </si>
+  <si>
+    <t>४५.००</t>
   </si>
   <si>
     <t>गोलभेडा सानो(टनेल)</t>
   </si>
   <si>
-    <t>के जी</t>
-  </si>
-  <si>
-    <t>४०.००</t>
-  </si>
-  <si>
-    <t>४५.००</t>
-  </si>
-  <si>
     <t>गोलभेडा सानो(भारतीय)</t>
   </si>
   <si>
@@ -118,24 +118,24 @@
     <t>३०.६७</t>
   </si>
   <si>
+    <t>२७.००</t>
+  </si>
+  <si>
+    <t>२६.००</t>
+  </si>
+  <si>
+    <t>२६.६७</t>
+  </si>
+  <si>
     <t>आलु सेतो</t>
   </si>
   <si>
-    <t>२७.००</t>
-  </si>
-  <si>
-    <t>२६.००</t>
-  </si>
-  <si>
-    <t>२६.६७</t>
+    <t>३४.५०</t>
   </si>
   <si>
     <t>प्याज सुकेको (भारतीय)</t>
   </si>
   <si>
-    <t>३४.५०</t>
-  </si>
-  <si>
     <t>गाजर(लोकल)</t>
   </si>
   <si>
@@ -163,21 +163,21 @@
     <t>मूला रातो</t>
   </si>
   <si>
+    <t>२२.५०</t>
+  </si>
+  <si>
+    <t>मूला सेतो(लोकल)</t>
+  </si>
+  <si>
     <t>२०.००</t>
   </si>
   <si>
-    <t>२२.५०</t>
-  </si>
-  <si>
-    <t>मूला सेतो(लोकल)</t>
+    <t>२७.५०</t>
   </si>
   <si>
     <t>सेतो मूला(हाइब्रीड)</t>
   </si>
   <si>
-    <t>२७.५०</t>
-  </si>
-  <si>
     <t>भन्टा लाम्चो</t>
   </si>
   <si>
@@ -187,13 +187,19 @@
     <t>बोडी(तने)</t>
   </si>
   <si>
+    <t>८०.००</t>
+  </si>
+  <si>
+    <t>७६.६७</t>
+  </si>
+  <si>
     <t>मकै बोडी</t>
   </si>
   <si>
-    <t>८०.००</t>
-  </si>
-  <si>
-    <t>७६.६७</t>
+    <t>१४०.००</t>
+  </si>
+  <si>
+    <t>१३०.००</t>
   </si>
   <si>
     <t>१३६.६७</t>
@@ -202,27 +208,21 @@
     <t>मटरकोशा</t>
   </si>
   <si>
-    <t>१४०.००</t>
-  </si>
-  <si>
-    <t>१३०.००</t>
-  </si>
-  <si>
     <t>घिउ सिमी(लोकल)</t>
   </si>
   <si>
     <t>७५.००</t>
   </si>
   <si>
+    <t>घिउ सिमी(हाइब्रीड)</t>
+  </si>
+  <si>
+    <t>९०.००</t>
+  </si>
+  <si>
     <t>८६.६७</t>
   </si>
   <si>
-    <t>घिउ सिमी(हाइब्रीड)</t>
-  </si>
-  <si>
-    <t>९०.००</t>
-  </si>
-  <si>
     <t>घिउ सिमी(राजमा)</t>
   </si>
   <si>
@@ -235,54 +235,54 @@
     <t>१०५.००</t>
   </si>
   <si>
+    <t>११६.६७</t>
+  </si>
+  <si>
+    <t>भटमासकोशा</t>
+  </si>
+  <si>
     <t>१२०.००</t>
   </si>
   <si>
-    <t>११६.६७</t>
-  </si>
-  <si>
-    <t>भटमासकोशा</t>
-  </si>
-  <si>
     <t>तितो करेला</t>
   </si>
   <si>
+    <t>५६.००</t>
+  </si>
+  <si>
     <t>लौका</t>
   </si>
   <si>
-    <t>५६.००</t>
+    <t>९५.००</t>
   </si>
   <si>
     <t>परवर(लोकल)</t>
   </si>
   <si>
-    <t>९५.००</t>
+    <t>८५.००</t>
   </si>
   <si>
     <t>परवर(तराई)</t>
   </si>
   <si>
-    <t>८५.००</t>
-  </si>
-  <si>
     <t>चिचिण्डो</t>
   </si>
   <si>
     <t>घिरौला</t>
   </si>
   <si>
+    <t>६३.३३</t>
+  </si>
+  <si>
     <t>झिगूनी</t>
   </si>
   <si>
-    <t>६३.३३</t>
+    <t>फर्सी पाकेको</t>
   </si>
   <si>
     <t>४८.७५</t>
   </si>
   <si>
-    <t>फर्सी पाकेको</t>
-  </si>
-  <si>
     <t>फर्सी हरियो(लाम्चो)</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>सलगम</t>
   </si>
   <si>
+    <t>६४.००</t>
+  </si>
+  <si>
     <t>भिण्डी</t>
   </si>
   <si>
-    <t>६४.००</t>
-  </si>
-  <si>
     <t>बरेला</t>
   </si>
   <si>
@@ -334,16 +334,19 @@
     <t>च्याउ(कन्य)</t>
   </si>
   <si>
+    <t>च्याउ(डल्ले)</t>
+  </si>
+  <si>
+    <t>३००.००</t>
+  </si>
+  <si>
+    <t>२५०.००</t>
+  </si>
+  <si>
     <t>२७६.००</t>
   </si>
   <si>
-    <t>च्याउ(डल्ले)</t>
-  </si>
-  <si>
-    <t>३००.००</t>
-  </si>
-  <si>
-    <t>२५०.००</t>
+    <t>३५०.००</t>
   </si>
   <si>
     <t>३२५.००</t>
@@ -352,9 +355,6 @@
     <t>कुरीलो</t>
   </si>
   <si>
-    <t>३५०.००</t>
-  </si>
-  <si>
     <t>न्यूरो</t>
   </si>
   <si>
@@ -376,18 +376,18 @@
     <t>ग्याठ कोबी</t>
   </si>
   <si>
+    <t>२००.००</t>
+  </si>
+  <si>
+    <t>१५०.००</t>
+  </si>
+  <si>
+    <t>१८३.३३</t>
+  </si>
+  <si>
     <t>सेलरी</t>
   </si>
   <si>
-    <t>२००.००</t>
-  </si>
-  <si>
-    <t>१५०.००</t>
-  </si>
-  <si>
-    <t>१८३.३३</t>
-  </si>
-  <si>
     <t>पार्सले</t>
   </si>
   <si>
@@ -430,10 +430,13 @@
     <t>स्याउ(फूजी)</t>
   </si>
   <si>
+    <t>केरा</t>
+  </si>
+  <si>
     <t>दर्जन</t>
   </si>
   <si>
-    <t>केरा</t>
+    <t>२१०.००</t>
   </si>
   <si>
     <t>कागती</t>
@@ -442,7 +445,7 @@
     <t>२२०.००</t>
   </si>
   <si>
-    <t>२१०.००</t>
+    <t>२७०.००</t>
   </si>
   <si>
     <t>अनार</t>
@@ -451,9 +454,6 @@
     <t>२८०.००</t>
   </si>
   <si>
-    <t>२७०.००</t>
-  </si>
-  <si>
     <t>आँप(मालदह)</t>
   </si>
   <si>
@@ -484,15 +484,15 @@
     <t>४३.३३</t>
   </si>
   <si>
+    <t>१८०.००</t>
+  </si>
+  <si>
+    <t>१६५.००</t>
+  </si>
+  <si>
     <t>मौसम</t>
   </si>
   <si>
-    <t>१८०.००</t>
-  </si>
-  <si>
-    <t>१६५.००</t>
-  </si>
-  <si>
     <t>जुनार</t>
   </si>
   <si>
@@ -514,36 +514,36 @@
     <t>काक्रो(हाइब्रीड)</t>
   </si>
   <si>
+    <t>रुख कटहर</t>
+  </si>
+  <si>
     <t>५६.६७</t>
   </si>
   <si>
-    <t>रुख कटहर</t>
+    <t>नासपाती(चाइनिज)</t>
   </si>
   <si>
     <t>३१०.००</t>
   </si>
   <si>
-    <t>नासपाती(चाइनिज)</t>
-  </si>
-  <si>
     <t>मेवा(नेपाली)</t>
   </si>
   <si>
     <t>मेवा(भारतीय)</t>
   </si>
   <si>
+    <t>४५०.००</t>
+  </si>
+  <si>
+    <t>४८३.३३</t>
+  </si>
+  <si>
+    <t>किवि</t>
+  </si>
+  <si>
     <t>५००.००</t>
   </si>
   <si>
-    <t>४५०.००</t>
-  </si>
-  <si>
-    <t>४८३.३३</t>
-  </si>
-  <si>
-    <t>किवि</t>
-  </si>
-  <si>
     <t>आभोकाडो</t>
   </si>
   <si>
@@ -556,36 +556,36 @@
     <t>अदुवा</t>
   </si>
   <si>
+    <t>४६५.००</t>
+  </si>
+  <si>
     <t>खु्र्सानी सुकेको</t>
   </si>
   <si>
     <t>४८०.००</t>
   </si>
   <si>
-    <t>४६५.००</t>
+    <t>खु्र्सानी हरियो</t>
   </si>
   <si>
     <t>९६.००</t>
   </si>
   <si>
-    <t>खु्र्सानी हरियो</t>
-  </si>
-  <si>
     <t>खुर्सानी हरियो(बुलेट)</t>
   </si>
   <si>
     <t>खुर्सानी हरियो(माछे)</t>
   </si>
   <si>
+    <t>खुर्सानी हरियो(अकबरे)</t>
+  </si>
+  <si>
+    <t>४००.००</t>
+  </si>
+  <si>
     <t>३७५.००</t>
   </si>
   <si>
-    <t>खुर्सानी हरियो(अकबरे)</t>
-  </si>
-  <si>
-    <t>४००.००</t>
-  </si>
-  <si>
     <t>भेडे खु्र्सानी</t>
   </si>
   <si>
@@ -613,13 +613,13 @@
     <t>छ्यापी हरियो</t>
   </si>
   <si>
+    <t>ताजा माछा(रहु)</t>
+  </si>
+  <si>
+    <t>३३०.००</t>
+  </si>
+  <si>
     <t>३४३.३३</t>
-  </si>
-  <si>
-    <t>ताजा माछा(रहु)</t>
-  </si>
-  <si>
-    <t>३३०.००</t>
   </si>
   <si>
     <t>ताजा माछा(बचुवा)</t>
@@ -943,22 +943,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -986,19 +986,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1006,19 +1006,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1026,19 +1026,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -1049,10 +1049,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -1069,16 +1069,16 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -1109,13 +1109,13 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
@@ -1126,19 +1126,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -1146,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1158,7 +1158,7 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -1172,13 +1172,13 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1229,10 +1229,10 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -1266,19 +1266,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -1286,19 +1286,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -1315,10 +1315,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
         <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -1332,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -1355,10 +1355,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
         <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -1366,19 +1366,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
         <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -1386,19 +1386,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -1412,10 +1412,10 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>65</v>
@@ -1426,19 +1426,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
         <v>68</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1449,7 +1449,7 @@
         <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>70</v>
@@ -1466,19 +1466,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>73</v>
       </c>
       <c r="E27" t="s">
         <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
@@ -1506,7 +1506,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1535,10 +1535,10 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -1546,19 +1546,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
         <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -1572,10 +1572,10 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
         <v>25</v>
@@ -1606,19 +1606,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -1626,7 +1626,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -1635,10 +1635,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -1655,10 +1655,10 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
         <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -1669,16 +1669,16 @@
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
         <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="38">
@@ -1692,13 +1692,13 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
         <v>58</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39">
@@ -1706,19 +1706,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
@@ -1732,13 +1732,13 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
         <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -1755,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s">
         <v>95</v>
@@ -1775,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
         <v>95</v>
@@ -1792,13 +1792,13 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
         <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
@@ -1812,13 +1812,13 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
         <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
@@ -1835,7 +1835,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
         <v>95</v>
@@ -1852,13 +1852,13 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
         <v>70</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
@@ -1872,13 +1872,13 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" t="s">
         <v>68</v>
-      </c>
-      <c r="E47" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="48">
@@ -1892,10 +1892,10 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
         <v>103</v>
@@ -1912,7 +1912,7 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
         <v>71</v>
@@ -1926,19 +1926,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
         <v>107</v>
       </c>
-      <c r="C50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>108</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>109</v>
-      </c>
-      <c r="F50" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="51">
@@ -1946,19 +1946,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
         <v>111</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="52">
@@ -1972,13 +1972,13 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
         <v>58</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="53">
@@ -1992,7 +1992,7 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
         <v>71</v>
@@ -2012,13 +2012,13 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
         <v>58</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="55">
@@ -2032,13 +2032,13 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
         <v>58</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="56">
@@ -2052,13 +2052,13 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
@@ -2072,13 +2072,13 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" t="s">
         <v>68</v>
-      </c>
-      <c r="E57" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="58">
@@ -2092,13 +2092,13 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
         <v>58</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="59">
@@ -2106,19 +2106,19 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
         <v>120</v>
       </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>121</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>122</v>
-      </c>
-      <c r="F59" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="60">
@@ -2132,13 +2132,13 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" t="s">
         <v>121</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>122</v>
-      </c>
-      <c r="F60" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="61">
@@ -2152,7 +2152,7 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
         <v>70</v>
@@ -2172,10 +2172,10 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" t="s">
         <v>121</v>
-      </c>
-      <c r="E62" t="s">
-        <v>122</v>
       </c>
       <c r="F62" t="s">
         <v>127</v>
@@ -2192,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
         <v>58</v>
-      </c>
-      <c r="E63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="64">
@@ -2212,10 +2212,10 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F64" t="s">
         <v>131</v>
@@ -2235,7 +2235,7 @@
         <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F65" t="s">
         <v>133</v>
@@ -2252,13 +2252,13 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
         <v>70</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67">
@@ -2272,10 +2272,10 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
         <v>108</v>
-      </c>
-      <c r="E67" t="s">
-        <v>109</v>
       </c>
       <c r="F67" t="s">
         <v>135</v>
@@ -2289,13 +2289,13 @@
         <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" t="s">
         <v>108</v>
-      </c>
-      <c r="E68" t="s">
-        <v>109</v>
       </c>
       <c r="F68" t="s">
         <v>135</v>
@@ -2306,16 +2306,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
         <v>139</v>
       </c>
-      <c r="C69" t="s">
-        <v>138</v>
-      </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F69" t="s">
         <v>131</v>
@@ -2326,19 +2326,19 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" t="s">
         <v>140</v>
-      </c>
-      <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F70" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="71">
@@ -2346,19 +2346,19 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" t="s">
         <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" t="s">
-        <v>109</v>
-      </c>
-      <c r="F71" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -2372,10 +2372,10 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F72" t="s">
         <v>147</v>
@@ -2389,13 +2389,13 @@
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F73" t="s">
         <v>147</v>
@@ -2412,10 +2412,10 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F74" t="s">
         <v>149</v>
@@ -2429,10 +2429,10 @@
         <v>153</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
         <v>151</v>
@@ -2452,10 +2452,10 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F76" t="s">
         <v>155</v>
@@ -2466,19 +2466,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
         <v>156</v>
       </c>
-      <c r="C77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" t="s">
         <v>157</v>
-      </c>
-      <c r="E77" t="s">
-        <v>122</v>
-      </c>
-      <c r="F77" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="78">
@@ -2492,10 +2492,10 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F78" t="s">
         <v>160</v>
@@ -2512,10 +2512,10 @@
         <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F79" t="s">
         <v>161</v>
@@ -2535,10 +2535,10 @@
         <v>71</v>
       </c>
       <c r="E80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
@@ -2549,10 +2549,10 @@
         <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
@@ -2566,7 +2566,7 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
@@ -2578,7 +2578,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83">
@@ -2586,19 +2586,19 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
         <v>151</v>
       </c>
       <c r="E83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84">
@@ -2612,7 +2612,7 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -2629,13 +2629,13 @@
         <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
         <v>71</v>
       </c>
       <c r="E85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F85" t="s">
         <v>133</v>
@@ -2646,19 +2646,19 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
         <v>175</v>
       </c>
-      <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>172</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>173</v>
-      </c>
-      <c r="F86" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -2672,13 +2672,13 @@
         <v>177</v>
       </c>
       <c r="D87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" t="s">
         <v>172</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="88">
@@ -2692,10 +2692,10 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" t="s">
         <v>108</v>
-      </c>
-      <c r="E88" t="s">
-        <v>109</v>
       </c>
       <c r="F88" t="s">
         <v>178</v>
@@ -2706,19 +2706,19 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>182</v>
+      </c>
+      <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>180</v>
-      </c>
-      <c r="C89" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" t="s">
-        <v>181</v>
-      </c>
-      <c r="E89" t="s">
-        <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="90">
@@ -2726,7 +2726,7 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -2735,10 +2735,10 @@
         <v>71</v>
       </c>
       <c r="E90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91">
@@ -2749,16 +2749,16 @@
         <v>185</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" t="s">
         <v>71</v>
       </c>
       <c r="E91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
@@ -2769,7 +2769,7 @@
         <v>186</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2778,7 +2778,7 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93">
@@ -2786,19 +2786,19 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
         <v>188</v>
       </c>
-      <c r="C93" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" t="s">
         <v>189</v>
-      </c>
-      <c r="E93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F93" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="94">
@@ -2812,13 +2812,13 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95">
@@ -2835,7 +2835,7 @@
         <v>71</v>
       </c>
       <c r="E95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F95" t="s">
         <v>133</v>
@@ -2852,7 +2852,7 @@
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -2878,7 +2878,7 @@
         <v>195</v>
       </c>
       <c r="F97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98">
@@ -2892,13 +2892,13 @@
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E98" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F98" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99">
@@ -2912,13 +2912,13 @@
         <v>8</v>
       </c>
       <c r="D99" t="s">
+        <v>67</v>
+      </c>
+      <c r="E99" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" t="s">
         <v>68</v>
-      </c>
-      <c r="E99" t="s">
-        <v>58</v>
-      </c>
-      <c r="F99" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="100">
@@ -2932,13 +2932,13 @@
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101">
@@ -2946,19 +2946,19 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>110</v>
+      </c>
+      <c r="E101" t="s">
         <v>200</v>
       </c>
-      <c r="C101" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" t="s">
-        <v>112</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="102">
@@ -2969,16 +2969,16 @@
         <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E102" t="s">
         <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
@@ -2989,16 +2989,16 @@
         <v>203</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E103" t="s">
         <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
@@ -3009,13 +3009,13 @@
         <v>205</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F104" t="s">
         <v>204</v>

--- a/data/excel/२०२३/०५/१७.xlsx
+++ b/data/excel/२०२३/०५/१७.xlsx
@@ -16,22 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Max Price</t>
+  </si>
+  <si>
+    <t>Min Price</t>
+  </si>
+  <si>
     <t>Avg Price</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Max Price</t>
-  </si>
-  <si>
-    <t>Min Price</t>
+    <t>५५.००</t>
   </si>
   <si>
     <t>२०२३-०५-१७</t>
@@ -49,21 +52,18 @@
     <t>५०.००</t>
   </si>
   <si>
-    <t>५५.००</t>
+    <t>६५.००</t>
+  </si>
+  <si>
+    <t>गोलभेडा ठूलो(भारतीय)</t>
+  </si>
+  <si>
+    <t>केजी</t>
   </si>
   <si>
     <t>७०.००</t>
   </si>
   <si>
-    <t>६५.००</t>
-  </si>
-  <si>
-    <t>गोलभेडा ठूलो(भारतीय)</t>
-  </si>
-  <si>
-    <t>केजी</t>
-  </si>
-  <si>
     <t>गोलभेडा सानो(लोकल)</t>
   </si>
   <si>
@@ -88,27 +88,27 @@
     <t>गोलभेडा सानो(टनेल)</t>
   </si>
   <si>
+    <t>३५.००</t>
+  </si>
+  <si>
+    <t>३७.५०</t>
+  </si>
+  <si>
     <t>गोलभेडा सानो(भारतीय)</t>
   </si>
   <si>
-    <t>३५.००</t>
-  </si>
-  <si>
-    <t>३७.५०</t>
-  </si>
-  <si>
     <t>गोलभेडा सानो(तराई)</t>
   </si>
   <si>
+    <t>३४.६०</t>
+  </si>
+  <si>
+    <t>आलु रातो</t>
+  </si>
+  <si>
     <t>३४.००</t>
   </si>
   <si>
-    <t>३४.६०</t>
-  </si>
-  <si>
-    <t>आलु रातो</t>
-  </si>
-  <si>
     <t>आलु रातो(भारतीय)</t>
   </si>
   <si>
@@ -130,15 +130,18 @@
     <t>आलु सेतो</t>
   </si>
   <si>
+    <t>प्याज सुकेको (भारतीय)</t>
+  </si>
+  <si>
     <t>३४.५०</t>
   </si>
   <si>
-    <t>प्याज सुकेको (भारतीय)</t>
-  </si>
-  <si>
     <t>गाजर(लोकल)</t>
   </si>
   <si>
+    <t>११.८०</t>
+  </si>
+  <si>
     <t>बन्दा(लोकल)</t>
   </si>
   <si>
@@ -148,9 +151,6 @@
     <t>१०.००</t>
   </si>
   <si>
-    <t>११.८०</t>
-  </si>
-  <si>
     <t>काउली स्थानिय</t>
   </si>
   <si>
@@ -187,15 +187,15 @@
     <t>बोडी(तने)</t>
   </si>
   <si>
+    <t>मकै बोडी</t>
+  </si>
+  <si>
     <t>८०.००</t>
   </si>
   <si>
     <t>७६.६७</t>
   </si>
   <si>
-    <t>मकै बोडी</t>
-  </si>
-  <si>
     <t>१४०.००</t>
   </si>
   <si>
@@ -214,15 +214,15 @@
     <t>७५.००</t>
   </si>
   <si>
+    <t>८६.६७</t>
+  </si>
+  <si>
     <t>घिउ सिमी(हाइब्रीड)</t>
   </si>
   <si>
     <t>९०.००</t>
   </si>
   <si>
-    <t>८६.६७</t>
-  </si>
-  <si>
     <t>घिउ सिमी(राजमा)</t>
   </si>
   <si>
@@ -235,15 +235,15 @@
     <t>१०५.००</t>
   </si>
   <si>
+    <t>भटमासकोशा</t>
+  </si>
+  <si>
+    <t>१२०.००</t>
+  </si>
+  <si>
     <t>११६.६७</t>
   </si>
   <si>
-    <t>भटमासकोशा</t>
-  </si>
-  <si>
-    <t>१२०.००</t>
-  </si>
-  <si>
     <t>तितो करेला</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>परवर(लोकल)</t>
   </si>
   <si>
+    <t>परवर(तराई)</t>
+  </si>
+  <si>
     <t>८५.००</t>
   </si>
   <si>
-    <t>परवर(तराई)</t>
-  </si>
-  <si>
     <t>चिचिण्डो</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>सलगम</t>
   </si>
   <si>
+    <t>भिण्डी</t>
+  </si>
+  <si>
     <t>६४.००</t>
   </si>
   <si>
-    <t>भिण्डी</t>
-  </si>
-  <si>
     <t>बरेला</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>प्याज हरियो</t>
   </si>
   <si>
+    <t>तरुल</t>
+  </si>
+  <si>
     <t>१३५.००</t>
   </si>
   <si>
-    <t>तरुल</t>
-  </si>
-  <si>
     <t>च्याउ(कन्य)</t>
   </si>
   <si>
@@ -346,15 +346,15 @@
     <t>२७६.००</t>
   </si>
   <si>
+    <t>३२५.००</t>
+  </si>
+  <si>
+    <t>कुरीलो</t>
+  </si>
+  <si>
     <t>३५०.००</t>
   </si>
   <si>
-    <t>३२५.००</t>
-  </si>
-  <si>
-    <t>कुरीलो</t>
-  </si>
-  <si>
     <t>न्यूरो</t>
   </si>
   <si>
@@ -376,6 +376,9 @@
     <t>ग्याठ कोबी</t>
   </si>
   <si>
+    <t>सेलरी</t>
+  </si>
+  <si>
     <t>२००.००</t>
   </si>
   <si>
@@ -385,9 +388,6 @@
     <t>१८३.३३</t>
   </si>
   <si>
-    <t>सेलरी</t>
-  </si>
-  <si>
     <t>पार्सले</t>
   </si>
   <si>
@@ -397,27 +397,27 @@
     <t>११५.००</t>
   </si>
   <si>
+    <t>पुदीना</t>
+  </si>
+  <si>
     <t>१७५.००</t>
   </si>
   <si>
-    <t>पुदीना</t>
-  </si>
-  <si>
     <t>गान्टे मूला</t>
   </si>
   <si>
+    <t>१४६.६७</t>
+  </si>
+  <si>
     <t>इमली</t>
   </si>
   <si>
-    <t>१४६.६७</t>
+    <t>९६.६७</t>
   </si>
   <si>
     <t>तामा</t>
   </si>
   <si>
-    <t>९६.६७</t>
-  </si>
-  <si>
     <t>तोफु</t>
   </si>
   <si>
@@ -430,10 +430,13 @@
     <t>स्याउ(फूजी)</t>
   </si>
   <si>
+    <t>दर्जन</t>
+  </si>
+  <si>
     <t>केरा</t>
   </si>
   <si>
-    <t>दर्जन</t>
+    <t>२२०.००</t>
   </si>
   <si>
     <t>२१०.००</t>
@@ -442,9 +445,6 @@
     <t>कागती</t>
   </si>
   <si>
-    <t>२२०.००</t>
-  </si>
-  <si>
     <t>२७०.००</t>
   </si>
   <si>
@@ -454,12 +454,12 @@
     <t>२८०.००</t>
   </si>
   <si>
+    <t>२२३.३३</t>
+  </si>
+  <si>
     <t>आँप(मालदह)</t>
   </si>
   <si>
-    <t>२२३.३३</t>
-  </si>
-  <si>
     <t>आँप(दसहरी)</t>
   </si>
   <si>
@@ -478,72 +478,72 @@
     <t>अंगुर(कालो)</t>
   </si>
   <si>
+    <t>४३.३३</t>
+  </si>
+  <si>
     <t>तरबुजा(हरियो)</t>
   </si>
   <si>
-    <t>४३.३३</t>
+    <t>१६५.००</t>
+  </si>
+  <si>
+    <t>मौसम</t>
   </si>
   <si>
     <t>१८०.००</t>
   </si>
   <si>
-    <t>१६५.००</t>
-  </si>
-  <si>
-    <t>मौसम</t>
-  </si>
-  <si>
     <t>जुनार</t>
   </si>
   <si>
     <t>१९३.३३</t>
   </si>
   <si>
+    <t>प्रति गोटा</t>
+  </si>
+  <si>
     <t>१९०.००</t>
   </si>
   <si>
     <t>भुई कटहर</t>
   </si>
   <si>
-    <t>प्रति गोटा</t>
-  </si>
-  <si>
     <t>काक्रो(लोकल)</t>
   </si>
   <si>
     <t>काक्रो(हाइब्रीड)</t>
   </si>
   <si>
+    <t>५६.६७</t>
+  </si>
+  <si>
     <t>रुख कटहर</t>
   </si>
   <si>
-    <t>५६.६७</t>
+    <t>३१०.००</t>
   </si>
   <si>
     <t>नासपाती(चाइनिज)</t>
   </si>
   <si>
-    <t>३१०.००</t>
-  </si>
-  <si>
     <t>मेवा(नेपाली)</t>
   </si>
   <si>
     <t>मेवा(भारतीय)</t>
   </si>
   <si>
+    <t>किवि</t>
+  </si>
+  <si>
+    <t>५००.००</t>
+  </si>
+  <si>
     <t>४५०.००</t>
   </si>
   <si>
     <t>४८३.३३</t>
   </si>
   <si>
-    <t>किवि</t>
-  </si>
-  <si>
-    <t>५००.००</t>
-  </si>
-  <si>
     <t>आभोकाडो</t>
   </si>
   <si>
@@ -556,15 +556,15 @@
     <t>अदुवा</t>
   </si>
   <si>
+    <t>खु्र्सानी सुकेको</t>
+  </si>
+  <si>
+    <t>४८०.००</t>
+  </si>
+  <si>
     <t>४६५.००</t>
   </si>
   <si>
-    <t>खु्र्सानी सुकेको</t>
-  </si>
-  <si>
-    <t>४८०.००</t>
-  </si>
-  <si>
     <t>खु्र्सानी हरियो</t>
   </si>
   <si>
@@ -595,13 +595,13 @@
     <t>हरियो धनिया</t>
   </si>
   <si>
+    <t>२६०.००</t>
+  </si>
+  <si>
+    <t>२४०.००</t>
+  </si>
+  <si>
     <t>लसुन सुकेको चाइनिज</t>
-  </si>
-  <si>
-    <t>२६०.००</t>
-  </si>
-  <si>
-    <t>२४०.००</t>
   </si>
   <si>
     <t>लसुन सुकेको नेपाली</t>
@@ -943,73 +943,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1032,7 +1032,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1055,15 +1055,15 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -1072,7 +1072,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -1083,27 +1083,27 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -1143,99 +1143,99 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
       </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>47</v>
@@ -1243,33 +1243,33 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1303,16 +1303,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -1323,19 +1323,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>47</v>
@@ -1343,16 +1343,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -1363,33 +1363,33 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
@@ -1403,19 +1403,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
         <v>65</v>
@@ -1423,33 +1423,33 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
         <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>70</v>
@@ -1463,59 +1463,59 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
       </c>
       <c r="E27" t="s">
         <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
         <v>77</v>
@@ -1523,19 +1523,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
         <v>79</v>
@@ -1543,33 +1543,33 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -1578,44 +1578,44 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
         <v>85</v>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
         <v>22</v>
@@ -1643,16 +1643,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -1663,16 +1663,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
@@ -1683,76 +1683,76 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
         <v>93</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
         <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -1763,16 +1763,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
@@ -1783,56 +1783,56 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
         <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
         <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
         <v>21</v>
@@ -1843,53 +1843,53 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
         <v>70</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
         <v>60</v>
@@ -1898,21 +1898,21 @@
         <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
         <v>71</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>106</v>
@@ -1943,56 +1943,56 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
         <v>112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>110</v>
       </c>
       <c r="E51" t="s">
         <v>107</v>
       </c>
       <c r="F51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s">
         <v>71</v>
@@ -2003,59 +2003,59 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
         <v>85</v>
@@ -2063,96 +2063,96 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" t="s">
         <v>123</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s">
         <v>70</v>
@@ -2163,113 +2163,113 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>128</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>120</v>
-      </c>
-      <c r="E62" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E64" t="s">
         <v>60</v>
       </c>
       <c r="F64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
         <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
         <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E66" t="s">
         <v>70</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
         <v>107</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>137</v>
@@ -2303,53 +2303,53 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="s">
         <v>138</v>
       </c>
-      <c r="C69" t="s">
-        <v>139</v>
-      </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
         <v>60</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" t="s">
+        <v>121</v>
+      </c>
+      <c r="F70" t="s">
         <v>141</v>
-      </c>
-      <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" t="s">
-        <v>142</v>
-      </c>
-      <c r="E70" t="s">
-        <v>120</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
         <v>145</v>
@@ -2363,59 +2363,59 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
         <v>108</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
         <v>108</v>
       </c>
       <c r="E73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
         <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F74" t="s">
         <v>149</v>
@@ -2423,16 +2423,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
         <v>153</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" t="s">
         <v>151</v>
@@ -2443,13 +2443,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
         <v>22</v>
@@ -2458,44 +2458,44 @@
         <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
         <v>158</v>
       </c>
-      <c r="C77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" t="s">
         <v>156</v>
-      </c>
-      <c r="E77" t="s">
-        <v>121</v>
-      </c>
-      <c r="F77" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
         <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E78" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F78" t="s">
         <v>160</v>
@@ -2503,39 +2503,39 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" t="s">
+        <v>158</v>
+      </c>
+      <c r="F79" t="s">
         <v>162</v>
-      </c>
-      <c r="C79" t="s">
-        <v>163</v>
-      </c>
-      <c r="D79" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" t="s">
-        <v>156</v>
-      </c>
-      <c r="F79" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
         <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
         <v>71</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F80" t="s">
         <v>79</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
         <v>165</v>
@@ -2552,10 +2552,10 @@
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
         <v>47</v>
@@ -2563,33 +2563,33 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
         <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
         <v>151</v>
@@ -2598,24 +2598,24 @@
         <v>107</v>
       </c>
       <c r="F83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
         <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
         <v>47</v>
@@ -2623,47 +2623,47 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
         <v>71</v>
       </c>
       <c r="E85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" t="s">
         <v>174</v>
       </c>
-      <c r="C86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>175</v>
-      </c>
-      <c r="E86" t="s">
-        <v>172</v>
-      </c>
-      <c r="F86" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
         <v>176</v>
@@ -2672,24 +2672,24 @@
         <v>177</v>
       </c>
       <c r="D87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" t="s">
+        <v>174</v>
+      </c>
+      <c r="F87" t="s">
         <v>175</v>
-      </c>
-      <c r="E87" t="s">
-        <v>172</v>
-      </c>
-      <c r="F87" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
         <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
         <v>107</v>
@@ -2703,39 +2703,39 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
         <v>181</v>
       </c>
-      <c r="C89" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>182</v>
-      </c>
-      <c r="E89" t="s">
-        <v>172</v>
-      </c>
-      <c r="F89" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>183</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
         <v>71</v>
       </c>
       <c r="E90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F90" t="s">
         <v>184</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
         <v>185</v>
@@ -2755,7 +2755,7 @@
         <v>71</v>
       </c>
       <c r="E91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F91" t="s">
         <v>79</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
         <v>186</v>
@@ -2772,18 +2772,18 @@
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
         <v>187</v>
@@ -2795,7 +2795,7 @@
         <v>188</v>
       </c>
       <c r="E93" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F93" t="s">
         <v>189</v>
@@ -2803,59 +2803,59 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
         <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
         <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
         <v>71</v>
       </c>
       <c r="E95" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F95" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
         <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
         <v>47</v>
@@ -2863,19 +2863,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
         <v>193</v>
       </c>
-      <c r="C97" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>194</v>
-      </c>
-      <c r="E97" t="s">
-        <v>195</v>
       </c>
       <c r="F97" t="s">
         <v>108</v>
@@ -2883,19 +2883,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
         <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
         <v>60</v>
       </c>
       <c r="E98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F98" t="s">
         <v>61</v>
@@ -2903,47 +2903,47 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
         <v>197</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
         <v>198</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
         <v>199</v>
@@ -2952,7 +2952,7 @@
         <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E101" t="s">
         <v>200</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
         <v>202</v>
@@ -2975,7 +2975,7 @@
         <v>107</v>
       </c>
       <c r="E102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
         <v>145</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
         <v>203</v>
@@ -2995,7 +2995,7 @@
         <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
         <v>145</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
         <v>205</v>
